--- a/ESPN sports website/IPL/Kolkata Knight Riders/.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/.xlsx
@@ -460,16 +460,16 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I2" t="str">
         <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>May 07, 2022</v>
+        <v>May 14, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>KKR won by 54 runs</v>
       </c>
     </row>
   </sheetData>
